--- a/Pricing/FxPricing/FX_Forward_Pricing.xlsx
+++ b/Pricing/FxPricing/FX_Forward_Pricing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoohyeonseung/Desktop/python-workspaces/sandbox/sandbox/Pricing/FxPricing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hs/Desktop/python_workspaces/sandbox/Pricing/FxPricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D20C18B-6768-F34F-A9FD-E865C3D959D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CAEE10-989F-C34E-B972-5763F5212BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="780" windowWidth="17100" windowHeight="20200" xr2:uid="{AE260054-CECD-704A-8392-8B6EA7DD9596}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="32140" xr2:uid="{AE260054-CECD-704A-8392-8B6EA7DD9596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>선도 환율 커브</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,6 +117,15 @@
   </si>
   <si>
     <t>평가값(USD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBMS 평가값(USD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">저희 계산 로직은 선물환 교환 시점의 원화 가격에서 CRS로 할인하여 평가시점 환율로 나눈 값입니다.
+OBMS는 원화의 평가값은 동일 하나 USD로 환산 할 때 현물 환율로 나눈것으로 확인됩니다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -127,13 +133,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="187" formatCode="#,##0.00000000"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00000000"/>
+    <numFmt numFmtId="184" formatCode="_(* #,##0.00000000_);_(* \(#,##0.00000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +173,15 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -232,7 +248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,7 +258,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -251,19 +267,28 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -304,22 +329,22 @@
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="2E9CB8"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="E97132"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="C80724"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="518B9B"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="96607D"/>
@@ -379,7 +404,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -490,6 +515,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -498,13 +530,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -569,27 +594,7 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -603,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B30D74A-10E8-AB44-93FB-F1385C8D8BF4}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="241" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -614,7 +619,9 @@
     <col min="3" max="3" width="2.5703125" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="3.140625" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19" thickBot="1">
@@ -642,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1323.5</v>
+        <v>1325.3</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -666,10 +673,10 @@
       <c r="B4" s="3">
         <v>45267</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -782,7 +789,7 @@
       <c r="H11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f>I10*B2</f>
         <v>635954457.28048301</v>
       </c>
@@ -803,7 +810,7 @@
       <c r="H12" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="13">
         <f>I11/E1</f>
         <v>459338.7195958707</v>
       </c>
@@ -821,6 +828,7 @@
       <c r="E13" s="1">
         <v>2.9994280000000002E-2</v>
       </c>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
@@ -835,6 +843,13 @@
       <c r="E14" s="1">
         <v>2.917018E-2</v>
       </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="13">
+        <f>I11/E2</f>
+        <v>479856.98127252929</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
@@ -849,7 +864,7 @@
       <c r="E15" s="1">
         <v>2.900231E-2</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
@@ -864,7 +879,10 @@
       <c r="E16" s="1">
         <v>2.9002090000000001E-2</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="H16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
@@ -879,7 +897,8 @@
       <c r="E17" s="1">
         <v>2.8857710000000002E-2</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
@@ -894,7 +913,8 @@
       <c r="E18" s="1">
         <v>2.9000620000000001E-2</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
@@ -909,6 +929,8 @@
       <c r="E19" s="1">
         <v>2.841784E-2</v>
       </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9">
       <c r="D20">
@@ -917,6 +939,8 @@
       <c r="E20" s="1">
         <v>2.7244850000000001E-2</v>
       </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9">
       <c r="D21">
@@ -925,13 +949,16 @@
       <c r="E21" s="1">
         <v>2.5654989999999999E-2</v>
       </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H16:I21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
